--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -6,20 +6,93 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="getKoelUserPlaylists" r:id="rId3" sheetId="1"/>
+    <sheet name="querySongByArtist" r:id="rId3" sheetId="1"/>
+    <sheet name="totalSongCount" r:id="rId4" sheetId="2"/>
+    <sheet name="getKoelUserPlaylists" r:id="rId5" sheetId="3"/>
+    <sheet name="artistQuery" r:id="rId6" sheetId="4"/>
+    <sheet name="songByArtist" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>mtime</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Dark Days</t>
+  </si>
+  <si>
+    <t>491.60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
+  </si>
+  <si>
+    <t>1691580260</t>
+  </si>
+  <si>
+    <t>2022-04-24 07:19:35</t>
+  </si>
+  <si>
+    <t>Grav</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -35,22 +108,16 @@
     <t>remember_token</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
     <t>rules</t>
   </si>
   <si>
-    <t>91796</t>
-  </si>
-  <si>
-    <t>newPlaylist</t>
+    <t>91982</t>
+  </si>
+  <si>
+    <t>playlistWithSongAdded</t>
   </si>
   <si>
     <t>franz.fernando+1@testpro.io</t>
@@ -62,7 +129,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>2024-02-22 03:21:37</t>
+    <t>2024-02-25 21:20:10</t>
   </si>
   <si>
     <t>29067</t>
@@ -73,13 +140,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -121,32 +208,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="65.21875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.5390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.2734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.13671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="21.13671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.9921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="5.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.71484375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.421875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.91015625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.94140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.2265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="48.5546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.63671875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="6.25390625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -183,35 +277,345 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.4140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.83984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.44140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.046875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="65.21875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5390625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.2734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.046875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.9921875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="5.86328125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>32</v>
+      </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K2" s="0"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.25390625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.13671875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.13671875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.91015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.2265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.25390625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="6.85546875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="F2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>18</v>
+      </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K2" s="0"/>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="totalSongCount" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="getKoelUserPlaylists" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="getKoelUserPlaylists" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="totalSongCount" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="artistQuery" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="songByArtist" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
@@ -23,7 +23,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preferences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remember_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playlistWithSongAdded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">franz.fernando+1@testpro.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2y$10$jlCAMwzTdELuBRzOv6HJ3OhPQ.oLR8EIgwFIwEzjaw7kXJ3tf1gHq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-25 21:20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29067</t>
+  </si>
   <si>
     <t xml:space="preserve">count</t>
   </si>
@@ -31,60 +85,6 @@
     <t xml:space="preserve">66</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preferences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remember_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playlistWithSongAdded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">franz.fernando+1@testpro.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2y$10$jlCAMwzTdELuBRzOv6HJ3OhPQ.oLR8EIgwFIwEzjaw7kXJ3tf1gHq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-25 21:20:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29067</t>
-  </si>
-  <si>
     <t xml:space="preserve">image</t>
   </si>
   <si>
@@ -137,6 +137,57 @@
   </si>
   <si>
     <t xml:space="preserve">1691580260</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Grav</t>
+  </si>
+  <si>
+    <t>2022-04-24 07:19:35</t>
+  </si>
+  <si>
+    <t>91982</t>
+  </si>
+  <si>
+    <t>playlistWithSongAdded</t>
+  </si>
+  <si>
+    <t>franz.fernando+1@testpro.io</t>
+  </si>
+  <si>
+    <t>$2y$10$jlCAMwzTdELuBRzOv6HJ3OhPQ.oLR8EIgwFIwEzjaw7kXJ3tf1gHq</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2024-02-25 21:20:10</t>
+  </si>
+  <si>
+    <t>29067</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Dark Days</t>
+  </si>
+  <si>
+    <t>491.60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
+  </si>
+  <si>
+    <t>1691580260</t>
   </si>
 </sst>
 </file>
@@ -151,6 +202,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,7 +284,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,29 +411,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.41"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="6.578125" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="21.5859375" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="26.453125" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="0" width="68.7109375" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="0" width="11.4453125" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" hidden="false" style="0" width="14.7265625" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" hidden="false" style="0" width="20.45703125" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" hidden="false" style="0" width="9.59375" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" hidden="false" style="0" width="7.03515625" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K3" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -398,91 +541,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.86"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="7.69921875" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -499,35 +583,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.13"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="3.515625" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="7.50390625" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="8.22265625" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +630,201 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -562,32 +841,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="48.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.85"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="3.515625" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.66015625" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="10.65234375" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="0" width="10.3515625" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.578125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" hidden="false" style="0" width="7.08984375" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" hidden="false" style="0" width="5.9296875" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.46875" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" hidden="false" style="0" width="46.58984375" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" hidden="false" style="0" width="12.140625" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" hidden="false" style="0" width="7.50390625" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" hidden="false" style="0" width="8.22265625" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -617,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>20</v>
@@ -669,7 +949,48 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="55">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -583,7 +583,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -822,6 +822,516 @@
         <v>40</v>
       </c>
       <c r="E15" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C29" s="0"/>
+      <c r="D29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="D31" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="D32" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C33" s="0"/>
+      <c r="D33" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C34" s="0"/>
+      <c r="D34" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C35" s="0"/>
+      <c r="D35" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C36" s="0"/>
+      <c r="D36" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C37" s="0"/>
+      <c r="D37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C38" s="0"/>
+      <c r="D38" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C39" s="0"/>
+      <c r="D39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C40" s="0"/>
+      <c r="D40" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C42" s="0"/>
+      <c r="D42" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C44" s="0"/>
+      <c r="D44" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C45" s="0"/>
+      <c r="D45" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C46" s="0"/>
+      <c r="D46" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C47" s="0"/>
+      <c r="D47" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C48" s="0"/>
+      <c r="D48" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C49" s="0"/>
+      <c r="D49" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s" s="0">
         <v>40</v>
       </c>
     </row>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="55">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -411,7 +411,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -525,6 +525,64 @@
       </c>
       <c r="K3" s="0"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K5" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -541,7 +599,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -564,6 +622,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -583,7 +651,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1335,6 +1403,36 @@
         <v>40</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C50" s="0"/>
+      <c r="D50" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C51" s="0"/>
+      <c r="D51" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1351,7 +1449,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1501,6 +1599,90 @@
       </c>
       <c r="N3" s="0"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N5" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="64">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -188,6 +188,33 @@
   </si>
   <si>
     <t>1691580260</t>
+  </si>
+  <si>
+    <t>92691</t>
+  </si>
+  <si>
+    <t>playlist</t>
+  </si>
+  <si>
+    <t>2024-03-15 00:02:21</t>
+  </si>
+  <si>
+    <t>92692</t>
+  </si>
+  <si>
+    <t>newSmartList</t>
+  </si>
+  <si>
+    <t>2024-03-15 00:02:42</t>
+  </si>
+  <si>
+    <t>[{"id":1710460944557,"rules":[{"id":1710460944557,"model":"title","operator":"contains","value":["dark"]}]}]</t>
+  </si>
+  <si>
+    <t>92693</t>
+  </si>
+  <si>
+    <t>2024-03-15 00:02:57</t>
   </si>
 </sst>
 </file>
@@ -411,7 +438,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -429,7 +456,7 @@
     <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
     <col min="9" max="9" bestFit="true" customWidth="true" hidden="false" style="0" width="19.5859375" collapsed="false" outlineLevel="0"/>
     <col min="10" max="10" bestFit="true" customWidth="true" hidden="false" style="0" width="9.59375" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" hidden="false" style="0" width="7.03515625" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" hidden="false" style="0" width="93.85546875" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,6 +609,832 @@
         <v>47</v>
       </c>
       <c r="K5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K33" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -599,7 +1452,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -632,6 +1485,41 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -651,7 +1539,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1433,6 +2321,111 @@
         <v>40</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C52" s="0"/>
+      <c r="D52" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C53" s="0"/>
+      <c r="D53" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C54" s="0"/>
+      <c r="D54" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C55" s="0"/>
+      <c r="D55" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C56" s="0"/>
+      <c r="D56" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C57" s="0"/>
+      <c r="D57" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C58" s="0"/>
+      <c r="D58" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1449,7 +2442,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1683,6 +2676,300 @@
       </c>
       <c r="N5" s="0"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N12" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="64">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -438,7 +438,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1436,6 +1436,1658 @@
       </c>
       <c r="K33" s="0"/>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K58" s="0"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K59" s="0"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K61" s="0"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K63" s="0"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K64" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K66" s="0"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K67" s="0"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K68" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K69" s="0"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K70" s="0"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K71" s="0"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K72" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K73" s="0"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K74" s="0"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K75" s="0"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K76" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K77" s="0"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K80" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K81" s="0"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K82" s="0"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K83" s="0"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K84" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K85" s="0"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
+      <c r="H86" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K86" s="0"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F87" s="0"/>
+      <c r="G87" s="0"/>
+      <c r="H87" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K87" s="0"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K88" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F89" s="0"/>
+      <c r="G89" s="0"/>
+      <c r="H89" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K89" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1452,7 +3104,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1520,6 +3172,76 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1539,7 +3261,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2426,6 +4148,216 @@
         <v>40</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C59" s="0"/>
+      <c r="D59" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C60" s="0"/>
+      <c r="D60" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C61" s="0"/>
+      <c r="D61" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C62" s="0"/>
+      <c r="D62" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C63" s="0"/>
+      <c r="D63" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C64" s="0"/>
+      <c r="D64" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C65" s="0"/>
+      <c r="D65" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C66" s="0"/>
+      <c r="D66" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C67" s="0"/>
+      <c r="D67" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C68" s="0"/>
+      <c r="D68" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C69" s="0"/>
+      <c r="D69" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C70" s="0"/>
+      <c r="D70" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C72" s="0"/>
+      <c r="D72" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2442,7 +4374,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2970,6 +4902,594 @@
       </c>
       <c r="N12" s="0"/>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="N26" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -241,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -531,6 +531,242 @@
       </c>
       <c r="K9" s="0"/>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K17" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -538,7 +774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,6 +798,16 @@
         <v>28</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -569,7 +815,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -629,6 +875,36 @@
         <v>32</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -636,7 +912,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,6 +1062,90 @@
       </c>
       <c r="N3" s="0"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="N4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="N5" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="getKoelUserPlaylists" r:id="rId3" sheetId="1"/>
-    <sheet name="totalSongCount" r:id="rId4" sheetId="2"/>
-    <sheet name="artistQuery" r:id="rId5" sheetId="3"/>
-    <sheet name="songByArtist" r:id="rId6" sheetId="4"/>
+    <sheet name="artistQuery" r:id="rId4" sheetId="2"/>
+    <sheet name="songByArtist" r:id="rId5" sheetId="3"/>
+    <sheet name="totalSongCount" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -98,67 +98,67 @@
     <t>2024-03-15 00:02:57</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Grav</t>
+  </si>
+  <si>
+    <t>2022-04-24 07:19:35</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>lyrics</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>mtime</t>
+  </si>
+  <si>
+    <t>Dark Days</t>
+  </si>
+  <si>
+    <t>491.60</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
+  </si>
+  <si>
+    <t>1691580260</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Grav</t>
-  </si>
-  <si>
-    <t>2022-04-24 07:19:35</t>
-  </si>
-  <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>artist_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>disc</t>
-  </si>
-  <si>
-    <t>lyrics</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>mtime</t>
-  </si>
-  <si>
-    <t>Dark Days</t>
-  </si>
-  <si>
-    <t>491.60</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>/var/www/qa.koel.app/media/Grav - Dark Days.mp3</t>
-  </si>
-  <si>
-    <t>1691580260</t>
   </si>
 </sst>
 </file>
@@ -774,47 +774,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.4140625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -829,80 +788,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -935,216 +894,257 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>29</v>
+      <c r="N1" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="G2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>47</v>
-      </c>
       <c r="K2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="G3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="J3" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>47</v>
-      </c>
       <c r="K3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="G4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="I4" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s" s="0">
+      <c r="J4" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>47</v>
-      </c>
       <c r="K4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="G5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s" s="0">
+      <c r="J5" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="K5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N5" s="0"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.4140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s" s="0">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="K5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="N5" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -241,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -767,6 +767,242 @@
       </c>
       <c r="K17" s="0"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K25" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -774,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,6 +1100,36 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -871,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1105,6 +1371,90 @@
       </c>
       <c r="N5" s="0"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N7" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1112,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1146,6 +1496,16 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/testData/dbResults.xlsx
+++ b/src/test/java/testData/dbResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -241,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1003,6 +1003,242 @@
       </c>
       <c r="K25" s="0"/>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K33" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1010,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,6 +1366,66 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1137,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1455,6 +1751,90 @@
       </c>
       <c r="N7" s="0"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N9" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1462,7 +1842,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1506,6 +1886,16 @@
         <v>47</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
